--- a/CustomerList_ja.xlsx
+++ b/CustomerList_ja.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\efiles\システム５課\ローコード\11.PowerApps\01.共通\01.CTC作成\Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z2010037\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583D85B4-5F1B-4D12-8881-66B0E3158F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7A5976-623A-4CE2-8229-F5E99A110401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2C7A53F-2328-4C1B-B754-5CF1A4BC2833}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2C7A53F-2328-4C1B-B754-5CF1A4BC2833}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -601,7 +601,14 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -612,6 +619,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3F62DED-4043-4931-A2CC-7685AD51F7BB}" name="customer" displayName="customer" ref="A1:K20" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:K20" xr:uid="{D3F62DED-4043-4931-A2CC-7685AD51F7BB}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{D759F1B0-46D9-4368-AED8-46D1CC91B5E7}" name="CustomerID"/>
+    <tableColumn id="2" xr3:uid="{9FF75F0F-F7AF-4A9B-8765-E53C4125CC13}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{F8E7E539-D1B8-4394-9A12-7B1B8804400E}" name="Name_hira"/>
+    <tableColumn id="4" xr3:uid="{CBFA0D04-398E-4363-87A6-89BE48198909}" name="Name_kana"/>
+    <tableColumn id="5" xr3:uid="{ED644949-3D0F-4F69-B5DE-F9E857560128}" name="Name_abc"/>
+    <tableColumn id="6" xr3:uid="{1DDC53D4-0252-4B90-BE64-78C22DC514CB}" name="BirthDay" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{0FFB32B6-35AB-406F-A2EE-8FB239773511}" name="Sex"/>
+    <tableColumn id="8" xr3:uid="{D613A5B8-C89B-4D11-96B4-499402B7E054}" name="Mail"/>
+    <tableColumn id="9" xr3:uid="{44FD5596-127B-4670-968B-F10B3B741294}" name="Tel"/>
+    <tableColumn id="10" xr3:uid="{92FB741C-FEAA-4A4E-991E-04317A877368}" name="Post"/>
+    <tableColumn id="11" xr3:uid="{DF26DC4A-445E-41D9-A310-48932CB253F5}" name="Address"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -914,20 +941,21 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.796875" customWidth="1"/>
     <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" customWidth="1"/>
     <col min="6" max="7" width="11.3984375" customWidth="1"/>
     <col min="8" max="8" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -1639,5 +1667,8 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>